--- a/liste adresse IP reseau local.xlsx
+++ b/liste adresse IP reseau local.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Documents\Projet-git\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AG_AUTOMATION\Documents\projet-git\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A7B1C76-09A9-4B04-9865-1309B073BBBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDCA2417-C167-4F35-9198-61746086D841}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{ED9A860D-5ACC-4A86-8C96-1B9CF926F86F}"/>
+    <workbookView xWindow="19080" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{ED9A860D-5ACC-4A86-8C96-1B9CF926F86F}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>Carte Portable lenovo</t>
   </si>
@@ -43,9 +43,6 @@
     <t>Wifi Portable lenovo</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>192.168.30.110</t>
   </si>
   <si>
@@ -110,6 +107,24 @@
   </si>
   <si>
     <t>192.168.30.93</t>
+  </si>
+  <si>
+    <t>Wifi fixe lenovo</t>
+  </si>
+  <si>
+    <t>192.168.30.12</t>
+  </si>
+  <si>
+    <t>Carte 1 fixe lenovo</t>
+  </si>
+  <si>
+    <t>Carte 2 fixe lenovo</t>
+  </si>
+  <si>
+    <t>192.168.30.13</t>
+  </si>
+  <si>
+    <t>192.168.30.14</t>
   </si>
 </sst>
 </file>
@@ -461,117 +476,136 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{036C2426-0D33-464A-85B4-704436F3E15C}">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.08984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="B8" t="s">
         <v>5</v>
       </c>
-      <c r="B4" t="s">
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="B9" t="s">
         <v>7</v>
       </c>
-      <c r="B5" t="s">
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+      <c r="B11" t="s">
         <v>9</v>
       </c>
-      <c r="B7" t="s">
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+      <c r="B12" t="s">
         <v>11</v>
       </c>
-      <c r="B8" t="s">
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>13</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B16" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>17</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B19" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
+      <c r="B21" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>21</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B22" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>
